--- a/converter-core/src/test/resources/Excel/Excel2XML_Scenario4.xlsx
+++ b/converter-core/src/test/resources/Excel/Excel2XML_Scenario4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksap086\Desktop\excel changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeohe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>XYZ456</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>This row will not be processed</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -384,20 +387,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -410,8 +413,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123456</v>
       </c>
@@ -424,8 +430,11 @@
       <c r="D4">
         <v>10</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>47890</v>
       </c>
@@ -437,6 +446,9 @@
       </c>
       <c r="D5">
         <v>15</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
